--- a/server/scripts/professors.xlsx
+++ b/server/scripts/professors.xlsx
@@ -4,14 +4,18 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet3" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Assignment" sheetId="3" r:id="rId6"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Sheet3!$A$1:$A$994</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="630">
   <si>
     <t>CSIS</t>
   </si>
@@ -22,6 +26,9 @@
     <t>Dr. Navneet Goyal</t>
   </si>
   <si>
+    <t>Hari Babu K</t>
+  </si>
+  <si>
     <t>EEE</t>
   </si>
   <si>
@@ -185,13 +192,1726 @@
   </si>
   <si>
     <t>Upendra Mohan Bhatt</t>
+  </si>
+  <si>
+    <t>Bio</t>
+  </si>
+  <si>
+    <t>Balakumaran Chandrasekar</t>
+  </si>
+  <si>
+    <t>Jitendra Panwar</t>
+  </si>
+  <si>
+    <t>Meghana Tare</t>
+  </si>
+  <si>
+    <t>Mukul Joshi</t>
+  </si>
+  <si>
+    <t>P. R. Deepa</t>
+  </si>
+  <si>
+    <t>Pankaj Kumar Sharma</t>
+  </si>
+  <si>
+    <t>Prabhat N. Jha</t>
+  </si>
+  <si>
+    <t>Prof. Ashis Kumar Das</t>
+  </si>
+  <si>
+    <t>Rajdeep Chowdhury</t>
+  </si>
+  <si>
+    <t>Rita Sharma</t>
+  </si>
+  <si>
+    <t>Sandhya Marathe</t>
+  </si>
+  <si>
+    <t>Shibasish Chowdhury</t>
+  </si>
+  <si>
+    <t>Shilpi Garg</t>
+  </si>
+  <si>
+    <t>SK Verma</t>
+  </si>
+  <si>
+    <t>Soumitra Ghosh</t>
+  </si>
+  <si>
+    <t>Sudeshna M Chowdhury</t>
+  </si>
+  <si>
+    <t>Syamantak Majumder</t>
+  </si>
+  <si>
+    <t>Uma S Dubey</t>
+  </si>
+  <si>
+    <t>Vani B.</t>
+  </si>
+  <si>
+    <t>Vishal Saxena</t>
+  </si>
+  <si>
+    <t>Civil</t>
+  </si>
+  <si>
+    <t>Dr. Dipendu Bhunia</t>
+  </si>
+  <si>
+    <t>Dr. Durgesh Vikram</t>
+  </si>
+  <si>
+    <t>Dr. G Muthukumar</t>
+  </si>
+  <si>
+    <t>Dr. Mukund Lahoti</t>
+  </si>
+  <si>
+    <t>Dr. Nishant Bhargava</t>
+  </si>
+  <si>
+    <t>Dr. Nishant Roy</t>
+  </si>
+  <si>
+    <t>Dr. R. Srinivas</t>
+  </si>
+  <si>
+    <t>Dr. Rajesh Kumar</t>
+  </si>
+  <si>
+    <t>Dr. S.N. Patel</t>
+  </si>
+  <si>
+    <t>Dr. Sayantan Chakraborty</t>
+  </si>
+  <si>
+    <t>Dr. Selva Balaji M</t>
+  </si>
+  <si>
+    <t>Dr. Shibani Khanra Jha</t>
+  </si>
+  <si>
+    <t>Dr. Vijay Kakade</t>
+  </si>
+  <si>
+    <t>Dr. Subhasis Pradhan</t>
+  </si>
+  <si>
+    <t>Mr. M.K. Hamirwasia</t>
+  </si>
+  <si>
+    <t>Prof. Ajit Pratap Singh</t>
+  </si>
+  <si>
+    <t>Prof. Anshuman</t>
+  </si>
+  <si>
+    <t>Prof. Anupam Singhal</t>
+  </si>
+  <si>
+    <t>Prof. Kamalesh Kumar</t>
+  </si>
+  <si>
+    <t>Prof. Manoj Kumar</t>
+  </si>
+  <si>
+    <t>Prof. Rajiv Gupta</t>
+  </si>
+  <si>
+    <t>Prof. Ravi Kant Mittal</t>
+  </si>
+  <si>
+    <t>Prof. Shamsher Bahadur Singh</t>
+  </si>
+  <si>
+    <t>Prof. Sudhirkumar Barai</t>
+  </si>
+  <si>
+    <t>Pubali Mandal</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Achint Nigam</t>
+  </si>
+  <si>
+    <t>Ajay Prasad Adepu</t>
+  </si>
+  <si>
+    <t>Ambatipudi Vamsidhar</t>
+  </si>
+  <si>
+    <t>Anil K Bhat</t>
+  </si>
+  <si>
+    <t>Anjani Srikanth Koka</t>
+  </si>
+  <si>
+    <t>Annapoorna Gopal</t>
+  </si>
+  <si>
+    <t>Bhamidipati Vaishali</t>
+  </si>
+  <si>
+    <t>Deepak Sharma</t>
+  </si>
+  <si>
+    <t>Dr. Arindam Roy</t>
+  </si>
+  <si>
+    <t>Dr. Satanik Mitra</t>
+  </si>
+  <si>
+    <t>Gaurav Nagpal</t>
+  </si>
+  <si>
+    <t>Jayashree Mahesh</t>
+  </si>
+  <si>
+    <t>Jyoti Tikoria</t>
+  </si>
+  <si>
+    <t>Krishnamurthy Bindumadhavan</t>
+  </si>
+  <si>
+    <t>Leela Rani</t>
+  </si>
+  <si>
+    <t>Mohammad Faraz Naim</t>
+  </si>
+  <si>
+    <t>Neetu Yadav</t>
+  </si>
+  <si>
+    <t>Niranjan Swain</t>
+  </si>
+  <si>
+    <t>Nirankush Dutta</t>
+  </si>
+  <si>
+    <t>Praveen Goyal</t>
+  </si>
+  <si>
+    <t>Rajesh Matai</t>
+  </si>
+  <si>
+    <t>Ramesh Venkatraman</t>
+  </si>
+  <si>
+    <t>Sandeep Kayastha</t>
+  </si>
+  <si>
+    <t>Satyendra K Sharma</t>
+  </si>
+  <si>
+    <t>Saurabh Chadha</t>
+  </si>
+  <si>
+    <t>Shaili Singh</t>
+  </si>
+  <si>
+    <t>Shekhar Rajagopalan</t>
+  </si>
+  <si>
+    <t>Sidharth Mishra</t>
+  </si>
+  <si>
+    <t>Suresh Sharma</t>
+  </si>
+  <si>
+    <t>Tirumalsety Revendranath</t>
+  </si>
+  <si>
+    <t>Udayan Chanda</t>
+  </si>
+  <si>
+    <t>Uma Nagrajan</t>
+  </si>
+  <si>
+    <t>Eco</t>
+  </si>
+  <si>
+    <t>Aditya Sharma</t>
+  </si>
+  <si>
+    <t>Aprajita Pandey</t>
+  </si>
+  <si>
+    <t>Dr. Arun Kumar Giri</t>
+  </si>
+  <si>
+    <t>Dr. Arya Kumar</t>
+  </si>
+  <si>
+    <t>Dr. Balakrushna Padhi</t>
+  </si>
+  <si>
+    <t>Dr. Byomakesh Debata</t>
+  </si>
+  <si>
+    <t>Dr. Debi Prasad Bal</t>
+  </si>
+  <si>
+    <t>Dr. Geetilaxmi Mohapatra</t>
+  </si>
+  <si>
+    <t>Dr. Krishna M</t>
+  </si>
+  <si>
+    <t>Dr. NV Muralidhar Rao</t>
+  </si>
+  <si>
+    <t>Dr. Rahul Arora</t>
+  </si>
+  <si>
+    <t>Dr. Rajan Pandey</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Anirudh Singh Rana</t>
+  </si>
+  <si>
+    <t>Ashish Tiwari</t>
+  </si>
+  <si>
+    <t>Balram Dubey</t>
+  </si>
+  <si>
+    <t>Chandra Shekhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devendra Kumar </t>
+  </si>
+  <si>
+    <t>Divyum Sharma</t>
+  </si>
+  <si>
+    <t>Dr. Bhupendra Kumar Sharma</t>
+  </si>
+  <si>
+    <t>Gaurav Dwivedi</t>
+  </si>
+  <si>
+    <t>Jitender Kumar</t>
+  </si>
+  <si>
+    <t>Krishnendra Shekhawat</t>
+  </si>
+  <si>
+    <t>P H Keskar</t>
+  </si>
+  <si>
+    <t>Pramod Eyyunni</t>
+  </si>
+  <si>
+    <t>Rahul Kumar</t>
+  </si>
+  <si>
+    <t>Rajesh Kumar</t>
+  </si>
+  <si>
+    <t>Rakhee</t>
+  </si>
+  <si>
+    <t>Sangita Yadav</t>
+  </si>
+  <si>
+    <t>Shailesh Trivedi</t>
+  </si>
+  <si>
+    <t>Shivi Agarwal</t>
+  </si>
+  <si>
+    <t>Sumanta Pasari</t>
+  </si>
+  <si>
+    <t>Trilok Mathur</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Dr. Ajay Kumar Sah</t>
+  </si>
+  <si>
+    <t>Dr. Amrita Chakraborty</t>
+  </si>
+  <si>
+    <t>Dr. Anil Kumar</t>
+  </si>
+  <si>
+    <t>Dr. Avik Kumar Pati</t>
+  </si>
+  <si>
+    <t>Dr. Bharti Khungar</t>
+  </si>
+  <si>
+    <t>Dr. BibhaS Ranjan Sarkar</t>
+  </si>
+  <si>
+    <t>Dr. Dalip Kumar</t>
+  </si>
+  <si>
+    <t>Dr. Inamur Rahaman Laskar</t>
+  </si>
+  <si>
+    <t>Dr. Indresh Kumar</t>
+  </si>
+  <si>
+    <t>Dr. Madhushree Sarkar</t>
+  </si>
+  <si>
+    <t>Dr. Mrinmoyee Basu</t>
+  </si>
+  <si>
+    <t>Dr. Paritosh Shukla</t>
+  </si>
+  <si>
+    <t>Dr. Partha Sarathi Addy</t>
+  </si>
+  <si>
+    <t>Dr. Prashant Uday Manohar</t>
+  </si>
+  <si>
+    <t>Dr. Pritam Kumar Jana</t>
+  </si>
+  <si>
+    <t>Dr. Rajeev Sakhuja</t>
+  </si>
+  <si>
+    <t>Dr. Ram Kinkar Roy</t>
+  </si>
+  <si>
+    <t>Dr. S.C. Sivasubramanian</t>
+  </si>
+  <si>
+    <t>Dr. Satyajit Patra</t>
+  </si>
+  <si>
+    <t>Dr. Saumi Ray</t>
+  </si>
+  <si>
+    <t>Dr. Shamik Chakraborty</t>
+  </si>
+  <si>
+    <t>Dr. Surojit Pande</t>
+  </si>
+  <si>
+    <t>Dr. Tanmay Banerjee</t>
+  </si>
+  <si>
+    <t>NItka Grover</t>
+  </si>
+  <si>
+    <t>Pharma</t>
+  </si>
+  <si>
+    <t>Anil JIndal</t>
+  </si>
+  <si>
+    <t>Bharati R</t>
+  </si>
+  <si>
+    <t>Dr. Aniruddha Roy</t>
+  </si>
+  <si>
+    <t>Dr. Anupuma Mittal</t>
+  </si>
+  <si>
+    <t>Dr. Atish T. Paul</t>
+  </si>
+  <si>
+    <t>Dr. Deepak Chitkara</t>
+  </si>
+  <si>
+    <t>Dr. Hemant R. Jadhav</t>
+  </si>
+  <si>
+    <t>Dr. Jagpreet Singh Sidhu</t>
+  </si>
+  <si>
+    <t>Dr. Murali Monohar Pandey</t>
+  </si>
+  <si>
+    <t>Dr. Pragyanshu Khare</t>
+  </si>
+  <si>
+    <t>Dr. Rajeev Taliyan</t>
+  </si>
+  <si>
+    <t>Dr. Richa Shrivastava</t>
+  </si>
+  <si>
+    <t>Dr. S Murugesan</t>
+  </si>
+  <si>
+    <t>Gautum Kumar</t>
+  </si>
+  <si>
+    <t>Gautum Singhvi</t>
+  </si>
+  <si>
+    <t>Prof. Gaikwad Anil Bhanudas</t>
+  </si>
+  <si>
+    <t>Prof. R. Mahesh</t>
+  </si>
+  <si>
+    <t>Sandeep Sundriyal</t>
+  </si>
+  <si>
+    <t>Chemical</t>
+  </si>
+  <si>
+    <t>Dr. Banasri Roy</t>
+  </si>
+  <si>
+    <t>Dr. Hare Krishna Mohanta</t>
+  </si>
+  <si>
+    <t>Dr. Mohit Garg</t>
+  </si>
+  <si>
+    <t>Dr. Prateek N Sheth</t>
+  </si>
+  <si>
+    <t>Dr. Priya C. Sande</t>
+  </si>
+  <si>
+    <t>Dr. Samir Kale</t>
+  </si>
+  <si>
+    <t>Dr. Ajaya Kumar Pani</t>
+  </si>
+  <si>
+    <t>Dr. Arvind Kumar Sharma</t>
+  </si>
+  <si>
+    <t>Dr. Bhanu Vardhan Reddy Kuncharam</t>
+  </si>
+  <si>
+    <t>Dr. Jay Pandey</t>
+  </si>
+  <si>
+    <t>Dr. Krishna C. Etika</t>
+  </si>
+  <si>
+    <t>Dr. Pradipta Chattopadhyay</t>
+  </si>
+  <si>
+    <t>Dr.Sarbani Ghosh</t>
+  </si>
+  <si>
+    <t>Dr. Smita Raghuvanshi</t>
+  </si>
+  <si>
+    <t>Dr. Somak Chatterjee</t>
+  </si>
+  <si>
+    <t>Dr. Srinivas Appari</t>
+  </si>
+  <si>
+    <t>Sr. Suresh Gupta</t>
+  </si>
+  <si>
+    <t>Mr. Khandgave Santosh Sopanrao</t>
+  </si>
+  <si>
+    <t>Prof. Amit Jain</t>
+  </si>
+  <si>
+    <t>Phy</t>
+  </si>
+  <si>
+    <t>Anshuman Dalvi</t>
+  </si>
+  <si>
+    <t>Aritra Banerjee</t>
+  </si>
+  <si>
+    <t>Bhavesh Chauhan</t>
+  </si>
+  <si>
+    <t>Biswanath Layek</t>
+  </si>
+  <si>
+    <t>Dr. Amol R Holkundkar</t>
+  </si>
+  <si>
+    <t>Dr. Arpan Das</t>
+  </si>
+  <si>
+    <t>Dr. D D Pant</t>
+  </si>
+  <si>
+    <t>Dr. Jayendra Nath Bandyopadhyay</t>
+  </si>
+  <si>
+    <t>Dr. Kaushar Vaidya</t>
+  </si>
+  <si>
+    <t>Dr. Manjuladevi V</t>
+  </si>
+  <si>
+    <t>Dr. R R Mishra</t>
+  </si>
+  <si>
+    <t>Dr. Rishikesh Vaidya</t>
+  </si>
+  <si>
+    <t>Dr. S Sindhu</t>
+  </si>
+  <si>
+    <t>Dr. Sandipan Dutta</t>
+  </si>
+  <si>
+    <t>Dr. Subhashis Gangopadhyay</t>
+  </si>
+  <si>
+    <t>Dr. Tanmoy Mondal</t>
+  </si>
+  <si>
+    <t>Dr. Tapomoy Guha Sarkar</t>
+  </si>
+  <si>
+    <t>Navin Singh</t>
+  </si>
+  <si>
+    <t>Niladri Sarkar</t>
+  </si>
+  <si>
+    <t>Prof. Madhukar Mishra</t>
+  </si>
+  <si>
+    <t>Prof. Rakesh Choubisa</t>
+  </si>
+  <si>
+    <t>Professor Debashis Bandopadhyay</t>
+  </si>
+  <si>
+    <t>Raj Kumar Gupta</t>
+  </si>
+  <si>
+    <t>Sajal Mukherjee</t>
+  </si>
+  <si>
+    <t>Srijata Dey</t>
+  </si>
+  <si>
+    <t>Mech</t>
+  </si>
+  <si>
+    <t>A R Harikrishnan</t>
+  </si>
+  <si>
+    <t>Aakash Chand Rai</t>
+  </si>
+  <si>
+    <t>Amar Singh</t>
+  </si>
+  <si>
+    <t>Amit Rajnarayan Singh</t>
+  </si>
+  <si>
+    <t>Amol Marathe</t>
+  </si>
+  <si>
+    <t>Anuj Sharma</t>
+  </si>
+  <si>
+    <t>Arun Kumar Jalan</t>
+  </si>
+  <si>
+    <t>Arun Maity</t>
+  </si>
+  <si>
+    <t>Benu Madhab Gedam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinesh Wamanrao Wagh </t>
+  </si>
+  <si>
+    <t>Divyansh Patel</t>
+  </si>
+  <si>
+    <t>Dr. Muralli Palla PhD</t>
+  </si>
+  <si>
+    <t>Dr. Abhijit K Digalwar</t>
+  </si>
+  <si>
+    <t>Dr. Amit Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Aneesh A M </t>
+  </si>
+  <si>
+    <t>Dr. Bijoy K Raut</t>
+  </si>
+  <si>
+    <t>Dr. Faizan Mohommad Rashid</t>
+  </si>
+  <si>
+    <t>Dr. Geeta Bhatt</t>
+  </si>
+  <si>
+    <t>Dr. Girish Kant</t>
+  </si>
+  <si>
+    <t>Dr. Jitendra Singh Rathore</t>
+  </si>
+  <si>
+    <t>Dr. M S Dasgupta</t>
+  </si>
+  <si>
+    <t>Dr. Md. Qaisar Raza</t>
+  </si>
+  <si>
+    <t>Dr. P Srinivasan</t>
+  </si>
+  <si>
+    <t>Dr. Prateek Kala, PhD</t>
+  </si>
+  <si>
+    <t>Dr. Radha Raman Mishra</t>
+  </si>
+  <si>
+    <t>Dr. Sachin U Belgamwar</t>
+  </si>
+  <si>
+    <t>Dr. Saket Verma</t>
+  </si>
+  <si>
+    <t>Dr. Sharad Srivastava</t>
+  </si>
+  <si>
+    <t>Dr. Shyam Sunar Yadav, PhD</t>
+  </si>
+  <si>
+    <t>Dr. Soumyajit Roy</t>
+  </si>
+  <si>
+    <t>Dr. Srikanta Routroy</t>
+  </si>
+  <si>
+    <t>Dr. Suvanjan Bhattarcharyya</t>
+  </si>
+  <si>
+    <t>Dr. Tribeni Roy</t>
+  </si>
+  <si>
+    <t>Dr. Tufan Chandra Bera</t>
+  </si>
+  <si>
+    <t>Dr. Venkatesh Kadbur Prabhakar Rao</t>
+  </si>
+  <si>
+    <t>Guarav Watts</t>
+  </si>
+  <si>
+    <t>Kuldip SIngh Sangwan</t>
+  </si>
+  <si>
+    <t>Mr. Sameer Gupta</t>
+  </si>
+  <si>
+    <t>Naga Vamsi Krishna Jati</t>
+  </si>
+  <si>
+    <t>Nthin Tom Mathew</t>
+  </si>
+  <si>
+    <t>Panchagnula Jayaprakash Sharma</t>
+  </si>
+  <si>
+    <t>Paramesw Chidamparam</t>
+  </si>
+  <si>
+    <t>Pavan Kumar Potdan</t>
+  </si>
+  <si>
+    <t>Pb Venkataraman</t>
+  </si>
+  <si>
+    <t>Prakruthi Hareesh</t>
+  </si>
+  <si>
+    <t>Proff Chennu Ranganayakalu</t>
+  </si>
+  <si>
+    <t>Prof. Manoj Kumar Soni</t>
+  </si>
+  <si>
+    <t>Rajesh P Mishra</t>
+  </si>
+  <si>
+    <t>Humanities</t>
+  </si>
+  <si>
+    <t>Dr. Anil Rai</t>
+  </si>
+  <si>
+    <t>Dr. Anupam Yadav</t>
+  </si>
+  <si>
+    <t>Dr. Chintalapalli Vijayakumar</t>
+  </si>
+  <si>
+    <t>Dr. Devika Sangwan</t>
+  </si>
+  <si>
+    <t>Dr. Gajendra Singh Chauhan</t>
+  </si>
+  <si>
+    <t>Dr. Harikrishnan Gopinadhan Nair</t>
+  </si>
+  <si>
+    <t>Dr. Kumar Neeraj Sachdev</t>
+  </si>
+  <si>
+    <t>Dr. Kumar Sankar Bhattarcharya</t>
+  </si>
+  <si>
+    <t>Dr. Madhurima Das</t>
+  </si>
+  <si>
+    <t>Dr. Muhammed Afzal P</t>
+  </si>
+  <si>
+    <t>Dr. Paul Mathew</t>
+  </si>
+  <si>
+    <t>Dr. Prateek</t>
+  </si>
+  <si>
+    <t>Dr. Pushp Lata</t>
+  </si>
+  <si>
+    <t>Dr. Rajneesh Choubisa</t>
+  </si>
+  <si>
+    <t>Dr. S K Choudhary</t>
+  </si>
+  <si>
+    <t>Dr. Sailaja Nandigama</t>
+  </si>
+  <si>
+    <t>Dr. Sanjeeta Sharma</t>
+  </si>
+  <si>
+    <t>Dr. Sunita Raina</t>
+  </si>
+  <si>
+    <t>Dr. Sushila Shekhawat</t>
+  </si>
+  <si>
+    <t>Dr. Tanu Shukla</t>
+  </si>
+  <si>
+    <t>Dr. Veena Ramchandran</t>
+  </si>
+  <si>
+    <t>Dr. Virendra Singh Nirban</t>
+  </si>
+  <si>
+    <t>h20230863@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230846@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230843@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230832@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230827@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230821@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230820@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230817@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230803@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230214@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230200@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230172@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230170@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230168@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230164@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230160@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230140@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230116@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230115@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230076@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230064@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230060@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230050@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230049@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230032@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230028@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230027@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230026@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>h20230025@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212793@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212789@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212785@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212781@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212779@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212760@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212746@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212743@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212741@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212735@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212734@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212733@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212732@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212729@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212724@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212722@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212720@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212719@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212717@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212707@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212692@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212687@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212680@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212670@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212668@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212660@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212652@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212648@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212647@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212643@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212624@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212594@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212590@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212583@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212563@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212502@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212487@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212477@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212475@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212473@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212452@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212410@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212407@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212396@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212380@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212369@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212346@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212331@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212328@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212315@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212299@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212298@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212288@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212286@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212280@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212275@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212272@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212236@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212235@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212227@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212192@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212191@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212121@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212117@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212107@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212091@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212088@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212087@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212086@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212085@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212083@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212080@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212073@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212072@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212070@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212064@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20212063@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211689@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211680@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211654@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211652@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211632@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211628@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211604@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211582@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211549@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211452@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211445@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211441@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211307@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211221@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211220@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211209@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211167@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211158@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211141@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211098@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211078@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20211056@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210948@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210939@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210912@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210904@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210885@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210846@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210842@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210827@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210815@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210775@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210760@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210752@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210559@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210524@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210328@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210313@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210251@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210120@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210098@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20210011@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20202052@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20202011@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20202008@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20202007@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20202000@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201999@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201997@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201995@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201994@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201990@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201983@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201982@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201980@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201979@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201978@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201977@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201975@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201974@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201971@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201969@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201968@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201960@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201958@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201957@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201954@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201953@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201952@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201951@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201948@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201947@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201946@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201945@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201940@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201937@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201933@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201928@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201927@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201926@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201925@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201923@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201921@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201914@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201910@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201909@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201907@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201906@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201905@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201896@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201893@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201890@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201888@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201659@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201645@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201636@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201624@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201619@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201618@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201617@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201610@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201605@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201485@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201471@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201469@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201462@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201458@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201455@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201454@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201442@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201440@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201437@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201425@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201413@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201412@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201406@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201403@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201386@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201385@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201383@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201380@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201379@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201377@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201331@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201325@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201235@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20201083@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200969@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200966@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200964@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200963@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200959@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200956@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200951@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200948@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200946@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200927@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200925@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200920@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200895@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200881@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200878@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200874@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200853@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200851@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200848@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200844@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200834@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200824@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200822@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200786@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200784@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200740@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200735@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200731@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200722@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200710@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200703@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200698@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200694@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200693@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200669@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200668@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200662@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200660@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200656@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200654@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200652@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200647@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200644@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200641@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200633@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200623@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200622@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200621@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200617@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200607@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200606@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200604@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200603@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200602@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>f20200474@pilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>Himanshu</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Divyansh</t>
+  </si>
+  <si>
+    <t>Digvijay</t>
+  </si>
+  <si>
+    <t>Mridul</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Akshal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -203,13 +1923,29 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -218,12 +1954,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -234,6 +1976,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -440,6 +2190,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="25.13"/>
+    <col customWidth="1" min="5" max="5" width="24.38"/>
+    <col customWidth="1" min="7" max="7" width="21.5"/>
+    <col customWidth="1" min="9" max="9" width="27.75"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -456,8 +2212,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -605,6 +2361,7 @@
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
@@ -729,6 +2486,3009 @@
     <row r="59">
       <c r="A59" s="1" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="$A$1:$A$994">
+    <sortState ref="A1:A994">
+      <sortCondition descending="1" ref="A1:A994"/>
+    </sortState>
+  </autoFilter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/server/scripts/professors.xlsx
+++ b/server/scripts/professors.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prith\code\tag-your-snap\server\scripts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585A8C8D-6B31-4913-915F-533CC7204166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet3" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Assignment" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
+    <sheet name="Assignment" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Sheet3!$A$1:$A$994</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$A$994</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="631">
   <si>
     <t>CSIS</t>
   </si>
@@ -488,9 +498,6 @@
     <t>Chandra Shekhar</t>
   </si>
   <si>
-    <t xml:space="preserve">Devendra Kumar </t>
-  </si>
-  <si>
     <t>Divyum Sharma</t>
   </si>
   <si>
@@ -836,9 +843,6 @@
     <t>Benu Madhab Gedam</t>
   </si>
   <si>
-    <t xml:space="preserve">Dinesh Wamanrao Wagh </t>
-  </si>
-  <si>
     <t>Divyansh Patel</t>
   </si>
   <si>
@@ -851,9 +855,6 @@
     <t>Dr. Amit Kumar</t>
   </si>
   <si>
-    <t xml:space="preserve">Dr. Aneesh A M </t>
-  </si>
-  <si>
     <t>Dr. Bijoy K Raut</t>
   </si>
   <si>
@@ -1905,41 +1906,56 @@
   </si>
   <si>
     <t>Akshal</t>
+  </si>
+  <si>
+    <t>RMIT</t>
+  </si>
+  <si>
+    <t>Devendra Kumar</t>
+  </si>
+  <si>
+    <t>Dinesh Wamanrao Wagh</t>
+  </si>
+  <si>
+    <t>Dr. Aneesh A M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1947,48 +1963,56 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2178,3320 +2202,3732 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E422"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.13"/>
-    <col customWidth="1" min="5" max="5" width="24.38"/>
-    <col customWidth="1" min="7" max="7" width="21.5"/>
-    <col customWidth="1" min="9" max="9" width="27.75"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="s">
+    <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="s">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="s">
+    <row r="93" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="s">
+    <row r="95" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="s">
+    <row r="96" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="s">
+    <row r="97" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="s">
+    <row r="98" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="s">
+    <row r="99" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="s">
+    <row r="100" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="s">
+    <row r="101" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="s">
+    <row r="104" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="s">
+    <row r="105" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="s">
+    <row r="106" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="s">
+    <row r="107" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="s">
+    <row r="109" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="s">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+    </row>
+    <row r="111" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="s">
+    <row r="112" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="s">
+    <row r="113" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="s">
+    <row r="114" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="s">
+    <row r="115" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="s">
+    <row r="116" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="s">
+    <row r="117" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="s">
+    <row r="118" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="s">
+    <row r="119" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="s">
+    <row r="120" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="s">
+    <row r="121" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="s">
+    <row r="122" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="s">
+    <row r="123" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="s">
+    <row r="124" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="s">
+    <row r="125" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="s">
+    <row r="126" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="s">
+    <row r="127" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="s">
+    <row r="128" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="s">
+    <row r="129" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="s">
+    <row r="130" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="s">
+    <row r="131" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="s">
+    <row r="132" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="s">
+    <row r="133" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="s">
+    <row r="134" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="s">
+    <row r="135" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="s">
+    <row r="136" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="s">
+    <row r="137" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="s">
+    <row r="138" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="s">
+    <row r="139" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="s">
+    <row r="140" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="s">
+    <row r="141" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="s">
+    <row r="142" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="s">
+    <row r="143" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="s">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+    </row>
+    <row r="145" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="s">
+    <row r="146" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="s">
+    <row r="147" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="s">
+    <row r="148" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="s">
+    <row r="149" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="s">
+    <row r="150" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="s">
+    <row r="151" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="s">
+    <row r="152" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="s">
+    <row r="153" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="s">
+    <row r="154" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="s">
+    <row r="155" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="s">
+    <row r="156" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="s">
+    <row r="157" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="s">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+    </row>
+    <row r="159" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="s">
+    <row r="160" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="s">
+    <row r="161" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="s">
+    <row r="162" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="s">
+    <row r="163" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="s">
+    <row r="164" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="s">
+    <row r="166" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="s">
+    <row r="167" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="s">
+    <row r="168" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="s">
+    <row r="169" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="s">
+    <row r="170" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="s">
+    <row r="171" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="s">
+    <row r="172" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="s">
+    <row r="173" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="s">
+    <row r="174" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="s">
+    <row r="175" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="s">
+    <row r="176" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="s">
+    <row r="177" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="s">
+    <row r="178" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="s">
+    <row r="179" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="s">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3"/>
+    </row>
+    <row r="181" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="s">
+    <row r="182" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="3" t="s">
+    <row r="183" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="s">
+    <row r="184" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="s">
+    <row r="185" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="s">
+    <row r="186" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1" t="s">
+    <row r="187" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1" t="s">
+    <row r="188" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1" t="s">
+    <row r="189" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1" t="s">
+    <row r="190" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1" t="s">
+    <row r="191" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="s">
+    <row r="192" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1" t="s">
+    <row r="193" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1" t="s">
+    <row r="194" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1" t="s">
+    <row r="195" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="s">
+    <row r="196" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="s">
+    <row r="197" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1" t="s">
+    <row r="198" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1" t="s">
+    <row r="199" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="s">
+    <row r="200" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1" t="s">
+    <row r="201" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1" t="s">
+    <row r="202" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1" t="s">
+    <row r="203" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1" t="s">
+    <row r="204" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="s">
+    <row r="205" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1" t="s">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3"/>
+    </row>
+    <row r="207" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1" t="s">
+    <row r="208" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1" t="s">
+    <row r="209" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1" t="s">
+    <row r="210" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="s">
+    <row r="211" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1" t="s">
+    <row r="212" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1" t="s">
+    <row r="213" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1" t="s">
+    <row r="214" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1" t="s">
+    <row r="215" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1" t="s">
+    <row r="216" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="s">
+    <row r="217" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="1" t="s">
+    <row r="218" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1" t="s">
+    <row r="219" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1" t="s">
+    <row r="220" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1" t="s">
+    <row r="221" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1" t="s">
+    <row r="222" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="s">
+    <row r="223" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1" t="s">
+    <row r="224" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1" t="s">
+    <row r="225" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1" t="s">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3"/>
+    </row>
+    <row r="227" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1" t="s">
+    <row r="228" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1" t="s">
+    <row r="229" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1" t="s">
+    <row r="230" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1" t="s">
+    <row r="231" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="1" t="s">
+    <row r="232" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="1" t="s">
+    <row r="233" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1" t="s">
+    <row r="234" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="1" t="s">
+    <row r="235" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="1" t="s">
+    <row r="236" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="1" t="s">
+    <row r="237" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="1" t="s">
+    <row r="238" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="1" t="s">
+    <row r="239" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="1" t="s">
+    <row r="240" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="1" t="s">
+    <row r="241" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="1" t="s">
+    <row r="242" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="1" t="s">
+    <row r="243" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="1" t="s">
+    <row r="244" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="1" t="s">
+    <row r="245" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="1" t="s">
+    <row r="246" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1" t="s">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3"/>
+    </row>
+    <row r="248" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="1" t="s">
+    <row r="249" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="1" t="s">
+    <row r="250" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="1" t="s">
+    <row r="251" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="1" t="s">
+    <row r="252" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="1" t="s">
+    <row r="253" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="1" t="s">
+    <row r="254" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="1" t="s">
+    <row r="255" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="1" t="s">
+    <row r="256" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="1" t="s">
+    <row r="257" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="1" t="s">
+    <row r="258" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="1" t="s">
+    <row r="259" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="1" t="s">
+    <row r="260" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="1" t="s">
+    <row r="261" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="1" t="s">
+    <row r="262" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="1" t="s">
+    <row r="263" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="1" t="s">
+    <row r="264" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="1" t="s">
+    <row r="265" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="1" t="s">
+    <row r="266" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="1" t="s">
+    <row r="267" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="1" t="s">
+    <row r="268" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="1" t="s">
+    <row r="269" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="1" t="s">
+    <row r="270" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="1" t="s">
+    <row r="271" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="1" t="s">
+    <row r="272" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="1" t="s">
+    <row r="273" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="1" t="s">
+    <row r="274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3"/>
+    </row>
+    <row r="275" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="1" t="s">
+    <row r="276" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="1" t="s">
+    <row r="277" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="1" t="s">
+    <row r="278" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="1" t="s">
+    <row r="279" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="1" t="s">
+    <row r="280" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="1" t="s">
+    <row r="281" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="1" t="s">
+    <row r="282" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="1" t="s">
+    <row r="283" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="1" t="s">
+    <row r="284" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="1" t="s">
+    <row r="285" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="1" t="s">
+    <row r="287" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="1" t="s">
+    <row r="288" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="1" t="s">
+    <row r="289" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="1" t="s">
+    <row r="290" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="1" t="s">
+    <row r="292" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="1" t="s">
+    <row r="293" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="1" t="s">
+    <row r="294" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="1" t="s">
+    <row r="295" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A295" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="1" t="s">
+    <row r="296" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="1" t="s">
+    <row r="297" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="1" t="s">
+    <row r="298" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="1" t="s">
+    <row r="299" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="1" t="s">
+    <row r="300" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="1" t="s">
+    <row r="301" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="1" t="s">
+    <row r="302" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="1" t="s">
+    <row r="303" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="1" t="s">
+    <row r="304" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="1" t="s">
+    <row r="305" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="1" t="s">
+    <row r="306" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="1" t="s">
+    <row r="307" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="1" t="s">
+    <row r="308" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="1" t="s">
+    <row r="309" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="1" t="s">
+    <row r="310" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="1" t="s">
+    <row r="311" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="1" t="s">
+    <row r="312" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="1" t="s">
+    <row r="313" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="1" t="s">
+    <row r="314" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="1" t="s">
+    <row r="315" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="1" t="s">
+    <row r="316" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="1" t="s">
+    <row r="317" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="1" t="s">
+    <row r="318" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="1" t="s">
+    <row r="319" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="1" t="s">
+    <row r="320" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="1" t="s">
+    <row r="321" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="1" t="s">
+    <row r="322" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="1" t="s">
+    <row r="323" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="1" t="s">
+    <row r="324" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="3"/>
+    </row>
+    <row r="325" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A325" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="1" t="s">
+    <row r="326" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A326" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="1" t="s">
+    <row r="327" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A327" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="1" t="s">
+    <row r="328" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="1" t="s">
+    <row r="329" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="1" t="s">
+    <row r="330" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A330" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="1" t="s">
+    <row r="331" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A331" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="1" t="s">
+    <row r="332" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A332" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="1" t="s">
+    <row r="333" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A333" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="1" t="s">
+    <row r="334" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A334" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="1" t="s">
+    <row r="335" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="1" t="s">
+    <row r="336" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A336" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="1" t="s">
+    <row r="337" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="1" t="s">
+    <row r="338" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="1" t="s">
+    <row r="339" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="1" t="s">
+    <row r="340" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A340" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="1" t="s">
+    <row r="341" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A341" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="1" t="s">
+    <row r="342" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A342" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="1" t="s">
+    <row r="343" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A343" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="1" t="s">
+    <row r="344" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A344" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="1" t="s">
+    <row r="345" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A345" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="1" t="s">
+    <row r="346" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A346" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="1" t="s">
+    <row r="347" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A347" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="s">
-        <v>334</v>
+    <row r="348" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="3"/>
+    </row>
+    <row r="349" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:A289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="1" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="1" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="1" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="1" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="1" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="1" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="1" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="1" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="1" t="s">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="1" t="s">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="1" t="s">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="1" t="s">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="1" t="s">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="1" t="s">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="1" t="s">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1" t="s">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="1" t="s">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="1" t="s">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="1" t="s">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="1" t="s">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="1" t="s">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="1" t="s">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="1" t="s">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="1" t="s">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="1" t="s">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="1" t="s">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="1" t="s">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="1" t="s">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="1" t="s">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="1" t="s">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="1" t="s">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="1" t="s">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="1" t="s">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="1" t="s">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="1" t="s">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="1" t="s">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="1" t="s">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="1" t="s">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="1" t="s">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="1" t="s">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="1" t="s">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="1" t="s">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="1" t="s">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="1" t="s">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="1" t="s">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="1" t="s">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="1" t="s">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="1" t="s">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="1" t="s">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="1" t="s">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="1" t="s">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="1" t="s">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="1" t="s">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="1" t="s">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="1" t="s">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="1" t="s">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$A$994">
-    <sortState ref="A1:A994">
-      <sortCondition descending="1" ref="A1:A994"/>
-    </sortState>
-  </autoFilter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:A994" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>629</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/server/scripts/professors.xlsx
+++ b/server/scripts/professors.xlsx
@@ -11,18 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>CSIS</t>
+    <t>Pharma</t>
   </si>
   <si>
-    <t>Dr. Shreyas Suresh Rao</t>
-  </si>
-  <si>
-    <t>Bio</t>
-  </si>
-  <si>
-    <t>Shashi Prakash Singh</t>
+    <t>Ankit Jain</t>
   </si>
 </sst>
 </file>
@@ -61,9 +55,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -304,1265 +301,1261 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="1"/>
+      <c r="A29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="1"/>
+      <c r="A31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="1"/>
+      <c r="A32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="1"/>
+      <c r="A33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="1"/>
+      <c r="A34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="1"/>
+      <c r="A35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="1"/>
+      <c r="A36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="1"/>
+      <c r="A37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="1"/>
+      <c r="A38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="1"/>
+      <c r="A39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="1"/>
+      <c r="A40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="1"/>
+      <c r="A41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="1"/>
+      <c r="A42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="1"/>
+      <c r="A43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="1"/>
+      <c r="A44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="1"/>
+      <c r="A45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="1"/>
+      <c r="A46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="1"/>
+      <c r="A47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="1"/>
+      <c r="A48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="1"/>
+      <c r="A49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="1"/>
+      <c r="A50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="1"/>
+      <c r="A51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="1"/>
+      <c r="A52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="1"/>
+      <c r="A53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="1"/>
+      <c r="A54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="1"/>
+      <c r="A55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="1"/>
+      <c r="A56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="1"/>
+      <c r="A57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="1"/>
+      <c r="A58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="1"/>
+      <c r="A59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="1"/>
+      <c r="A60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="1"/>
+      <c r="A61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="1"/>
+      <c r="A62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="1"/>
+      <c r="A63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="1"/>
+      <c r="A64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="1"/>
+      <c r="A65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="1"/>
+      <c r="A66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="1"/>
+      <c r="A67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="1"/>
+      <c r="A68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="1"/>
+      <c r="A69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="1"/>
+      <c r="A70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="1"/>
+      <c r="A71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="1"/>
+      <c r="A72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="1"/>
+      <c r="A73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="1"/>
+      <c r="A74" s="2"/>
     </row>
     <row r="75">
-      <c r="A75" s="1"/>
+      <c r="A75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="1"/>
+      <c r="A76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="1"/>
+      <c r="A77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="1"/>
+      <c r="A78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="1"/>
+      <c r="A79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="1"/>
+      <c r="A80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="1"/>
+      <c r="A81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="1"/>
+      <c r="A82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="1"/>
+      <c r="A83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="1"/>
+      <c r="A84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="1"/>
+      <c r="A85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="1"/>
+      <c r="A86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="1"/>
+      <c r="A87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="1"/>
+      <c r="A88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="1"/>
+      <c r="A89" s="2"/>
     </row>
     <row r="90">
-      <c r="A90" s="1"/>
+      <c r="A90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="1"/>
+      <c r="A91" s="2"/>
     </row>
     <row r="92">
-      <c r="A92" s="1"/>
+      <c r="A92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="1"/>
+      <c r="A93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="1"/>
+      <c r="A94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="1"/>
+      <c r="A95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="1"/>
+      <c r="A96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="1"/>
+      <c r="A97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="1"/>
+      <c r="A98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="1"/>
+      <c r="A99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="1"/>
+      <c r="A100" s="2"/>
     </row>
     <row r="101">
-      <c r="A101" s="1"/>
+      <c r="A101" s="2"/>
     </row>
     <row r="102">
-      <c r="A102" s="1"/>
+      <c r="A102" s="2"/>
     </row>
     <row r="103">
-      <c r="A103" s="1"/>
+      <c r="A103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="1"/>
+      <c r="A104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="1"/>
+      <c r="A105" s="2"/>
     </row>
     <row r="106">
-      <c r="A106" s="1"/>
+      <c r="A106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="1"/>
+      <c r="A107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="1"/>
+      <c r="A108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="1"/>
+      <c r="A109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="3"/>
+      <c r="A110" s="4"/>
     </row>
     <row r="111">
-      <c r="A111" s="1"/>
+      <c r="A111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="1"/>
+      <c r="A112" s="2"/>
     </row>
     <row r="113">
-      <c r="A113" s="1"/>
+      <c r="A113" s="2"/>
     </row>
     <row r="114">
-      <c r="A114" s="1"/>
+      <c r="A114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="1"/>
+      <c r="A115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="1"/>
+      <c r="A116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="1"/>
+      <c r="A117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="1"/>
+      <c r="A118" s="2"/>
     </row>
     <row r="119">
-      <c r="A119" s="1"/>
+      <c r="A119" s="2"/>
     </row>
     <row r="120">
-      <c r="A120" s="1"/>
+      <c r="A120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="1"/>
+      <c r="A121" s="2"/>
     </row>
     <row r="122">
-      <c r="A122" s="1"/>
+      <c r="A122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="1"/>
+      <c r="A123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="1"/>
+      <c r="A124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="1"/>
+      <c r="A125" s="2"/>
     </row>
     <row r="126">
-      <c r="A126" s="1"/>
+      <c r="A126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="1"/>
+      <c r="A127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="1"/>
+      <c r="A128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="1"/>
+      <c r="A129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="1"/>
+      <c r="A130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="1"/>
+      <c r="A131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="1"/>
+      <c r="A132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="1"/>
+      <c r="A133" s="2"/>
     </row>
     <row r="134">
-      <c r="A134" s="1"/>
+      <c r="A134" s="2"/>
     </row>
     <row r="135">
-      <c r="A135" s="1"/>
+      <c r="A135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="1"/>
+      <c r="A136" s="2"/>
     </row>
     <row r="137">
-      <c r="A137" s="1"/>
+      <c r="A137" s="2"/>
     </row>
     <row r="138">
-      <c r="A138" s="1"/>
+      <c r="A138" s="2"/>
     </row>
     <row r="139">
-      <c r="A139" s="1"/>
+      <c r="A139" s="2"/>
     </row>
     <row r="140">
-      <c r="A140" s="1"/>
+      <c r="A140" s="2"/>
     </row>
     <row r="141">
-      <c r="A141" s="1"/>
+      <c r="A141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="3"/>
+      <c r="A142" s="4"/>
     </row>
     <row r="143">
-      <c r="A143" s="1"/>
+      <c r="A143" s="2"/>
     </row>
     <row r="144">
-      <c r="A144" s="3"/>
+      <c r="A144" s="4"/>
     </row>
     <row r="145">
-      <c r="A145" s="1"/>
+      <c r="A145" s="2"/>
     </row>
     <row r="146">
-      <c r="A146" s="1"/>
+      <c r="A146" s="2"/>
     </row>
     <row r="147">
-      <c r="A147" s="1"/>
+      <c r="A147" s="2"/>
     </row>
     <row r="148">
-      <c r="A148" s="1"/>
+      <c r="A148" s="2"/>
     </row>
     <row r="149">
-      <c r="A149" s="1"/>
+      <c r="A149" s="2"/>
     </row>
     <row r="150">
-      <c r="A150" s="1"/>
+      <c r="A150" s="2"/>
     </row>
     <row r="151">
-      <c r="A151" s="1"/>
+      <c r="A151" s="2"/>
     </row>
     <row r="152">
-      <c r="A152" s="1"/>
+      <c r="A152" s="2"/>
     </row>
     <row r="153">
-      <c r="A153" s="1"/>
+      <c r="A153" s="2"/>
     </row>
     <row r="154">
-      <c r="A154" s="1"/>
+      <c r="A154" s="2"/>
     </row>
     <row r="155">
-      <c r="A155" s="1"/>
+      <c r="A155" s="2"/>
     </row>
     <row r="156">
-      <c r="A156" s="1"/>
+      <c r="A156" s="2"/>
     </row>
     <row r="157">
-      <c r="A157" s="1"/>
+      <c r="A157" s="2"/>
     </row>
     <row r="158">
-      <c r="A158" s="3"/>
+      <c r="A158" s="4"/>
     </row>
     <row r="159">
-      <c r="A159" s="1"/>
+      <c r="A159" s="2"/>
     </row>
     <row r="160">
-      <c r="A160" s="1"/>
+      <c r="A160" s="2"/>
     </row>
     <row r="161">
-      <c r="A161" s="1"/>
+      <c r="A161" s="2"/>
     </row>
     <row r="162">
-      <c r="A162" s="1"/>
+      <c r="A162" s="2"/>
     </row>
     <row r="163">
-      <c r="A163" s="1"/>
+      <c r="A163" s="2"/>
     </row>
     <row r="164">
-      <c r="A164" s="1"/>
+      <c r="A164" s="2"/>
     </row>
     <row r="165">
-      <c r="A165" s="1"/>
+      <c r="A165" s="2"/>
     </row>
     <row r="166">
-      <c r="A166" s="1"/>
+      <c r="A166" s="2"/>
     </row>
     <row r="167">
-      <c r="A167" s="1"/>
+      <c r="A167" s="2"/>
     </row>
     <row r="168">
-      <c r="A168" s="1"/>
+      <c r="A168" s="2"/>
     </row>
     <row r="169">
-      <c r="A169" s="1"/>
+      <c r="A169" s="2"/>
     </row>
     <row r="170">
-      <c r="A170" s="1"/>
+      <c r="A170" s="2"/>
     </row>
     <row r="171">
-      <c r="A171" s="1"/>
+      <c r="A171" s="2"/>
     </row>
     <row r="172">
-      <c r="A172" s="1"/>
+      <c r="A172" s="2"/>
     </row>
     <row r="173">
-      <c r="A173" s="1"/>
+      <c r="A173" s="2"/>
     </row>
     <row r="174">
-      <c r="A174" s="1"/>
+      <c r="A174" s="2"/>
     </row>
     <row r="175">
-      <c r="A175" s="1"/>
+      <c r="A175" s="2"/>
     </row>
     <row r="176">
-      <c r="A176" s="1"/>
+      <c r="A176" s="2"/>
     </row>
     <row r="177">
-      <c r="A177" s="1"/>
+      <c r="A177" s="2"/>
     </row>
     <row r="178">
-      <c r="A178" s="1"/>
+      <c r="A178" s="2"/>
     </row>
     <row r="179">
-      <c r="A179" s="1"/>
+      <c r="A179" s="2"/>
     </row>
     <row r="180">
-      <c r="A180" s="1"/>
+      <c r="A180" s="2"/>
     </row>
     <row r="181">
-      <c r="A181" s="3"/>
+      <c r="A181" s="4"/>
     </row>
     <row r="182">
-      <c r="A182" s="1"/>
+      <c r="A182" s="2"/>
     </row>
     <row r="183">
-      <c r="A183" s="1"/>
+      <c r="A183" s="2"/>
     </row>
     <row r="184">
-      <c r="A184" s="1"/>
+      <c r="A184" s="2"/>
     </row>
     <row r="185">
-      <c r="A185" s="1"/>
+      <c r="A185" s="2"/>
     </row>
     <row r="186">
-      <c r="A186" s="1"/>
+      <c r="A186" s="2"/>
     </row>
     <row r="187">
-      <c r="A187" s="1"/>
+      <c r="A187" s="2"/>
     </row>
     <row r="188">
-      <c r="A188" s="1"/>
+      <c r="A188" s="2"/>
     </row>
     <row r="189">
-      <c r="A189" s="1"/>
+      <c r="A189" s="2"/>
     </row>
     <row r="190">
-      <c r="A190" s="1"/>
+      <c r="A190" s="2"/>
     </row>
     <row r="191">
-      <c r="A191" s="1"/>
+      <c r="A191" s="2"/>
     </row>
     <row r="192">
-      <c r="A192" s="1"/>
+      <c r="A192" s="2"/>
     </row>
     <row r="193">
-      <c r="A193" s="1"/>
+      <c r="A193" s="2"/>
     </row>
     <row r="194">
-      <c r="A194" s="1"/>
+      <c r="A194" s="2"/>
     </row>
     <row r="195">
-      <c r="A195" s="1"/>
+      <c r="A195" s="2"/>
     </row>
     <row r="196">
-      <c r="A196" s="1"/>
+      <c r="A196" s="2"/>
     </row>
     <row r="197">
-      <c r="A197" s="1"/>
+      <c r="A197" s="2"/>
     </row>
     <row r="198">
-      <c r="A198" s="1"/>
+      <c r="A198" s="2"/>
     </row>
     <row r="199">
-      <c r="A199" s="1"/>
+      <c r="A199" s="2"/>
     </row>
     <row r="200">
-      <c r="A200" s="1"/>
+      <c r="A200" s="2"/>
     </row>
     <row r="201">
-      <c r="A201" s="1"/>
+      <c r="A201" s="2"/>
     </row>
     <row r="202">
-      <c r="A202" s="1"/>
+      <c r="A202" s="2"/>
     </row>
     <row r="203">
-      <c r="A203" s="1"/>
+      <c r="A203" s="2"/>
     </row>
     <row r="204">
-      <c r="A204" s="1"/>
+      <c r="A204" s="2"/>
     </row>
     <row r="205">
-      <c r="A205" s="1"/>
+      <c r="A205" s="2"/>
     </row>
     <row r="206">
-      <c r="A206" s="1"/>
+      <c r="A206" s="2"/>
     </row>
     <row r="207">
-      <c r="A207" s="1"/>
+      <c r="A207" s="2"/>
     </row>
     <row r="208">
-      <c r="A208" s="1"/>
+      <c r="A208" s="2"/>
     </row>
     <row r="209">
-      <c r="A209" s="1"/>
+      <c r="A209" s="2"/>
     </row>
     <row r="210">
-      <c r="A210" s="1"/>
+      <c r="A210" s="2"/>
     </row>
     <row r="211">
-      <c r="A211" s="1"/>
+      <c r="A211" s="2"/>
     </row>
     <row r="212">
-      <c r="A212" s="1"/>
+      <c r="A212" s="2"/>
     </row>
     <row r="213">
-      <c r="A213" s="1"/>
+      <c r="A213" s="2"/>
     </row>
     <row r="214">
-      <c r="A214" s="1"/>
+      <c r="A214" s="2"/>
     </row>
     <row r="215">
-      <c r="A215" s="1"/>
+      <c r="A215" s="2"/>
     </row>
     <row r="216">
-      <c r="A216" s="1"/>
+      <c r="A216" s="2"/>
     </row>
     <row r="217">
-      <c r="A217" s="1"/>
+      <c r="A217" s="2"/>
     </row>
     <row r="218">
-      <c r="A218" s="1"/>
+      <c r="A218" s="2"/>
     </row>
     <row r="219">
-      <c r="A219" s="1"/>
+      <c r="A219" s="2"/>
     </row>
     <row r="220">
-      <c r="A220" s="1"/>
+      <c r="A220" s="2"/>
     </row>
     <row r="221">
-      <c r="A221" s="1"/>
+      <c r="A221" s="2"/>
     </row>
     <row r="222">
-      <c r="A222" s="1"/>
+      <c r="A222" s="2"/>
     </row>
     <row r="223">
-      <c r="A223" s="1"/>
+      <c r="A223" s="2"/>
     </row>
     <row r="224">
-      <c r="A224" s="1"/>
+      <c r="A224" s="2"/>
     </row>
     <row r="225">
-      <c r="A225" s="1"/>
+      <c r="A225" s="2"/>
     </row>
     <row r="226">
-      <c r="A226" s="1"/>
+      <c r="A226" s="2"/>
     </row>
     <row r="227">
-      <c r="A227" s="1"/>
+      <c r="A227" s="2"/>
     </row>
     <row r="228">
-      <c r="A228" s="1"/>
+      <c r="A228" s="2"/>
     </row>
     <row r="229">
-      <c r="A229" s="1"/>
+      <c r="A229" s="2"/>
     </row>
     <row r="230">
-      <c r="A230" s="1"/>
+      <c r="A230" s="2"/>
     </row>
     <row r="231">
-      <c r="A231" s="1"/>
+      <c r="A231" s="2"/>
     </row>
     <row r="232">
-      <c r="A232" s="1"/>
+      <c r="A232" s="2"/>
     </row>
     <row r="233">
-      <c r="A233" s="1"/>
+      <c r="A233" s="2"/>
     </row>
     <row r="234">
-      <c r="A234" s="1"/>
+      <c r="A234" s="2"/>
     </row>
     <row r="235">
-      <c r="A235" s="1"/>
+      <c r="A235" s="2"/>
     </row>
     <row r="236">
-      <c r="A236" s="1"/>
+      <c r="A236" s="2"/>
     </row>
     <row r="237">
-      <c r="A237" s="1"/>
+      <c r="A237" s="2"/>
     </row>
     <row r="238">
-      <c r="A238" s="1"/>
+      <c r="A238" s="2"/>
     </row>
     <row r="239">
-      <c r="A239" s="1"/>
+      <c r="A239" s="2"/>
     </row>
     <row r="240">
-      <c r="A240" s="1"/>
+      <c r="A240" s="2"/>
     </row>
     <row r="241">
-      <c r="A241" s="1"/>
+      <c r="A241" s="2"/>
     </row>
     <row r="242">
-      <c r="A242" s="1"/>
+      <c r="A242" s="2"/>
     </row>
     <row r="243">
-      <c r="A243" s="1"/>
+      <c r="A243" s="2"/>
     </row>
     <row r="244">
-      <c r="A244" s="1"/>
+      <c r="A244" s="2"/>
     </row>
     <row r="245">
-      <c r="A245" s="1"/>
+      <c r="A245" s="2"/>
     </row>
     <row r="246">
-      <c r="A246" s="1"/>
+      <c r="A246" s="2"/>
     </row>
     <row r="247">
-      <c r="A247" s="1"/>
+      <c r="A247" s="2"/>
     </row>
     <row r="248">
-      <c r="A248" s="1"/>
+      <c r="A248" s="2"/>
     </row>
     <row r="249">
-      <c r="A249" s="1"/>
+      <c r="A249" s="2"/>
     </row>
     <row r="250">
-      <c r="A250" s="1"/>
+      <c r="A250" s="2"/>
     </row>
     <row r="251">
-      <c r="A251" s="1"/>
+      <c r="A251" s="2"/>
     </row>
     <row r="252">
-      <c r="A252" s="1"/>
+      <c r="A252" s="2"/>
     </row>
     <row r="253">
-      <c r="A253" s="1"/>
+      <c r="A253" s="2"/>
     </row>
     <row r="254">
-      <c r="A254" s="1"/>
+      <c r="A254" s="2"/>
     </row>
     <row r="255">
-      <c r="A255" s="1"/>
+      <c r="A255" s="2"/>
     </row>
     <row r="256">
-      <c r="A256" s="1"/>
+      <c r="A256" s="2"/>
     </row>
     <row r="257">
-      <c r="A257" s="1"/>
+      <c r="A257" s="2"/>
     </row>
     <row r="258">
-      <c r="A258" s="1"/>
+      <c r="A258" s="2"/>
     </row>
     <row r="259">
-      <c r="A259" s="1"/>
+      <c r="A259" s="2"/>
     </row>
     <row r="260">
-      <c r="A260" s="1"/>
+      <c r="A260" s="2"/>
     </row>
     <row r="261">
-      <c r="A261" s="1"/>
+      <c r="A261" s="2"/>
     </row>
     <row r="262">
-      <c r="A262" s="1"/>
+      <c r="A262" s="2"/>
     </row>
     <row r="263">
-      <c r="A263" s="1"/>
+      <c r="A263" s="2"/>
     </row>
     <row r="264">
-      <c r="A264" s="1"/>
+      <c r="A264" s="2"/>
     </row>
     <row r="265">
-      <c r="A265" s="1"/>
+      <c r="A265" s="2"/>
     </row>
     <row r="266">
-      <c r="A266" s="1"/>
+      <c r="A266" s="2"/>
     </row>
     <row r="267">
-      <c r="A267" s="1"/>
+      <c r="A267" s="2"/>
     </row>
     <row r="268">
-      <c r="A268" s="1"/>
+      <c r="A268" s="2"/>
     </row>
     <row r="269">
-      <c r="A269" s="1"/>
+      <c r="A269" s="2"/>
     </row>
     <row r="270">
-      <c r="A270" s="1"/>
+      <c r="A270" s="2"/>
     </row>
     <row r="271">
-      <c r="A271" s="1"/>
+      <c r="A271" s="2"/>
     </row>
     <row r="272">
-      <c r="A272" s="1"/>
+      <c r="A272" s="2"/>
     </row>
     <row r="273">
-      <c r="A273" s="1"/>
+      <c r="A273" s="2"/>
     </row>
     <row r="274">
-      <c r="A274" s="1"/>
+      <c r="A274" s="2"/>
     </row>
     <row r="275">
-      <c r="A275" s="1"/>
+      <c r="A275" s="2"/>
     </row>
     <row r="276">
-      <c r="A276" s="1"/>
+      <c r="A276" s="2"/>
     </row>
     <row r="277">
-      <c r="A277" s="1"/>
+      <c r="A277" s="2"/>
     </row>
     <row r="278">
-      <c r="A278" s="1"/>
+      <c r="A278" s="2"/>
     </row>
     <row r="279">
-      <c r="A279" s="1"/>
+      <c r="A279" s="2"/>
     </row>
     <row r="280">
-      <c r="A280" s="1"/>
+      <c r="A280" s="2"/>
     </row>
     <row r="281">
-      <c r="A281" s="1"/>
+      <c r="A281" s="2"/>
     </row>
     <row r="282">
-      <c r="A282" s="1"/>
+      <c r="A282" s="2"/>
     </row>
     <row r="283">
-      <c r="A283" s="1"/>
+      <c r="A283" s="2"/>
     </row>
     <row r="284">
-      <c r="A284" s="1"/>
+      <c r="A284" s="2"/>
     </row>
     <row r="285">
-      <c r="A285" s="1"/>
+      <c r="A285" s="2"/>
     </row>
     <row r="286">
-      <c r="A286" s="1"/>
+      <c r="A286" s="2"/>
     </row>
     <row r="287">
-      <c r="A287" s="1"/>
+      <c r="A287" s="2"/>
     </row>
     <row r="288">
-      <c r="A288" s="1"/>
+      <c r="A288" s="2"/>
     </row>
     <row r="289">
-      <c r="A289" s="1"/>
+      <c r="A289" s="2"/>
     </row>
     <row r="290">
-      <c r="A290" s="1"/>
+      <c r="A290" s="2"/>
     </row>
     <row r="291">
-      <c r="A291" s="1"/>
+      <c r="A291" s="2"/>
     </row>
     <row r="292">
-      <c r="A292" s="1"/>
+      <c r="A292" s="2"/>
     </row>
     <row r="293">
-      <c r="A293" s="1"/>
+      <c r="A293" s="2"/>
     </row>
     <row r="294">
-      <c r="A294" s="1"/>
+      <c r="A294" s="2"/>
     </row>
     <row r="295">
-      <c r="A295" s="1"/>
+      <c r="A295" s="2"/>
     </row>
     <row r="296">
-      <c r="A296" s="1"/>
+      <c r="A296" s="2"/>
     </row>
     <row r="297">
-      <c r="A297" s="1"/>
+      <c r="A297" s="2"/>
     </row>
     <row r="298">
-      <c r="A298" s="1"/>
+      <c r="A298" s="2"/>
     </row>
     <row r="299">
-      <c r="A299" s="1"/>
+      <c r="A299" s="2"/>
     </row>
     <row r="300">
-      <c r="A300" s="1"/>
+      <c r="A300" s="2"/>
     </row>
     <row r="301">
-      <c r="A301" s="1"/>
+      <c r="A301" s="2"/>
     </row>
     <row r="302">
-      <c r="A302" s="1"/>
+      <c r="A302" s="2"/>
     </row>
     <row r="303">
-      <c r="A303" s="1"/>
+      <c r="A303" s="2"/>
     </row>
     <row r="304">
-      <c r="A304" s="1"/>
+      <c r="A304" s="2"/>
     </row>
     <row r="305">
-      <c r="A305" s="1"/>
+      <c r="A305" s="2"/>
     </row>
     <row r="306">
-      <c r="A306" s="1"/>
+      <c r="A306" s="2"/>
     </row>
     <row r="307">
-      <c r="A307" s="1"/>
+      <c r="A307" s="2"/>
     </row>
     <row r="308">
-      <c r="A308" s="1"/>
+      <c r="A308" s="2"/>
     </row>
     <row r="309">
-      <c r="A309" s="1"/>
+      <c r="A309" s="2"/>
     </row>
     <row r="310">
-      <c r="A310" s="1"/>
+      <c r="A310" s="2"/>
     </row>
     <row r="311">
-      <c r="A311" s="1"/>
+      <c r="A311" s="2"/>
     </row>
     <row r="312">
-      <c r="A312" s="1"/>
+      <c r="A312" s="2"/>
     </row>
     <row r="313">
-      <c r="A313" s="1"/>
+      <c r="A313" s="2"/>
     </row>
     <row r="314">
-      <c r="A314" s="1"/>
+      <c r="A314" s="2"/>
     </row>
     <row r="315">
-      <c r="A315" s="1"/>
+      <c r="A315" s="2"/>
     </row>
     <row r="316">
-      <c r="A316" s="1"/>
+      <c r="A316" s="2"/>
     </row>
     <row r="317">
-      <c r="A317" s="1"/>
+      <c r="A317" s="2"/>
     </row>
     <row r="318">
-      <c r="A318" s="1"/>
+      <c r="A318" s="2"/>
     </row>
     <row r="319">
-      <c r="A319" s="1"/>
+      <c r="A319" s="2"/>
     </row>
     <row r="320">
-      <c r="A320" s="1"/>
+      <c r="A320" s="2"/>
     </row>
     <row r="321">
-      <c r="A321" s="1"/>
+      <c r="A321" s="2"/>
     </row>
     <row r="322">
-      <c r="A322" s="1"/>
+      <c r="A322" s="2"/>
     </row>
     <row r="323">
-      <c r="A323" s="1"/>
+      <c r="A323" s="2"/>
     </row>
     <row r="324">
-      <c r="A324" s="1"/>
+      <c r="A324" s="2"/>
     </row>
     <row r="325">
-      <c r="A325" s="1"/>
+      <c r="A325" s="2"/>
     </row>
     <row r="326">
-      <c r="A326" s="1"/>
+      <c r="A326" s="2"/>
     </row>
     <row r="327">
-      <c r="A327" s="1"/>
+      <c r="A327" s="2"/>
     </row>
     <row r="328">
-      <c r="A328" s="1"/>
+      <c r="A328" s="2"/>
     </row>
     <row r="329">
-      <c r="A329" s="1"/>
+      <c r="A329" s="2"/>
     </row>
     <row r="330">
-      <c r="A330" s="1"/>
+      <c r="A330" s="2"/>
     </row>
     <row r="331">
-      <c r="A331" s="1"/>
+      <c r="A331" s="2"/>
     </row>
     <row r="332">
-      <c r="A332" s="1"/>
+      <c r="A332" s="2"/>
     </row>
     <row r="333">
-      <c r="A333" s="1"/>
+      <c r="A333" s="2"/>
     </row>
     <row r="334">
-      <c r="A334" s="1"/>
+      <c r="A334" s="2"/>
     </row>
     <row r="335">
-      <c r="A335" s="1"/>
+      <c r="A335" s="2"/>
     </row>
     <row r="336">
-      <c r="A336" s="1"/>
+      <c r="A336" s="2"/>
     </row>
     <row r="337">
-      <c r="A337" s="1"/>
+      <c r="A337" s="2"/>
     </row>
     <row r="338">
-      <c r="A338" s="1"/>
+      <c r="A338" s="2"/>
     </row>
     <row r="339">
-      <c r="A339" s="1"/>
+      <c r="A339" s="2"/>
     </row>
     <row r="340">
-      <c r="A340" s="1"/>
+      <c r="A340" s="2"/>
     </row>
     <row r="341">
-      <c r="A341" s="1"/>
+      <c r="A341" s="2"/>
     </row>
     <row r="342">
-      <c r="A342" s="1"/>
+      <c r="A342" s="2"/>
     </row>
     <row r="343">
-      <c r="A343" s="1"/>
+      <c r="A343" s="2"/>
     </row>
     <row r="344">
-      <c r="A344" s="1"/>
+      <c r="A344" s="2"/>
     </row>
     <row r="345">
-      <c r="A345" s="1"/>
+      <c r="A345" s="2"/>
     </row>
     <row r="346">
-      <c r="A346" s="1"/>
+      <c r="A346" s="2"/>
     </row>
     <row r="347">
-      <c r="A347" s="1"/>
+      <c r="A347" s="2"/>
     </row>
     <row r="348">
-      <c r="A348" s="1"/>
+      <c r="A348" s="2"/>
     </row>
     <row r="349">
-      <c r="A349" s="1"/>
+      <c r="A349" s="2"/>
     </row>
     <row r="350">
-      <c r="A350" s="1"/>
+      <c r="A350" s="2"/>
     </row>
     <row r="351">
-      <c r="A351" s="1"/>
+      <c r="A351" s="2"/>
     </row>
     <row r="352">
-      <c r="A352" s="1"/>
+      <c r="A352" s="2"/>
     </row>
     <row r="353">
-      <c r="A353" s="1"/>
+      <c r="A353" s="2"/>
     </row>
     <row r="354">
-      <c r="A354" s="1"/>
+      <c r="A354" s="2"/>
     </row>
     <row r="355">
-      <c r="A355" s="1"/>
+      <c r="A355" s="2"/>
     </row>
     <row r="356">
-      <c r="A356" s="1"/>
+      <c r="A356" s="2"/>
     </row>
     <row r="357">
-      <c r="A357" s="1"/>
+      <c r="A357" s="2"/>
     </row>
     <row r="358">
-      <c r="A358" s="1"/>
+      <c r="A358" s="2"/>
     </row>
     <row r="359">
-      <c r="A359" s="1"/>
+      <c r="A359" s="2"/>
     </row>
     <row r="360">
-      <c r="A360" s="1"/>
+      <c r="A360" s="2"/>
     </row>
     <row r="361">
-      <c r="A361" s="1"/>
+      <c r="A361" s="2"/>
     </row>
     <row r="362">
-      <c r="A362" s="1"/>
+      <c r="A362" s="2"/>
     </row>
     <row r="363">
-      <c r="A363" s="1"/>
+      <c r="A363" s="2"/>
     </row>
     <row r="364">
-      <c r="A364" s="1"/>
+      <c r="A364" s="2"/>
     </row>
     <row r="365">
-      <c r="A365" s="1"/>
+      <c r="A365" s="2"/>
     </row>
     <row r="366">
-      <c r="A366" s="1"/>
+      <c r="A366" s="2"/>
     </row>
     <row r="367">
-      <c r="A367" s="1"/>
+      <c r="A367" s="2"/>
     </row>
     <row r="368">
-      <c r="A368" s="1"/>
+      <c r="A368" s="2"/>
     </row>
     <row r="369">
-      <c r="A369" s="1"/>
+      <c r="A369" s="2"/>
     </row>
     <row r="370">
-      <c r="A370" s="1"/>
+      <c r="A370" s="2"/>
     </row>
     <row r="371">
-      <c r="A371" s="1"/>
+      <c r="A371" s="2"/>
     </row>
     <row r="372">
-      <c r="A372" s="1"/>
+      <c r="A372" s="2"/>
     </row>
     <row r="373">
-      <c r="A373" s="1"/>
+      <c r="A373" s="2"/>
     </row>
     <row r="374">
-      <c r="A374" s="1"/>
+      <c r="A374" s="2"/>
     </row>
     <row r="375">
-      <c r="A375" s="1"/>
+      <c r="A375" s="2"/>
     </row>
     <row r="376">
-      <c r="A376" s="1"/>
+      <c r="A376" s="2"/>
     </row>
     <row r="377">
-      <c r="A377" s="1"/>
+      <c r="A377" s="2"/>
     </row>
     <row r="378">
-      <c r="A378" s="1"/>
+      <c r="A378" s="2"/>
     </row>
     <row r="379">
-      <c r="A379" s="1"/>
+      <c r="A379" s="2"/>
     </row>
     <row r="380">
-      <c r="A380" s="1"/>
+      <c r="A380" s="2"/>
     </row>
     <row r="381">
-      <c r="A381" s="1"/>
+      <c r="A381" s="2"/>
     </row>
     <row r="382">
-      <c r="A382" s="1"/>
+      <c r="A382" s="2"/>
     </row>
     <row r="383">
-      <c r="A383" s="1"/>
+      <c r="A383" s="2"/>
     </row>
     <row r="384">
-      <c r="A384" s="1"/>
+      <c r="A384" s="2"/>
     </row>
     <row r="385">
-      <c r="A385" s="1"/>
+      <c r="A385" s="2"/>
     </row>
     <row r="386">
-      <c r="A386" s="1"/>
+      <c r="A386" s="2"/>
     </row>
     <row r="387">
-      <c r="A387" s="1"/>
+      <c r="A387" s="2"/>
     </row>
     <row r="388">
-      <c r="A388" s="1"/>
+      <c r="A388" s="2"/>
     </row>
     <row r="389">
-      <c r="A389" s="1"/>
+      <c r="A389" s="2"/>
     </row>
     <row r="390">
-      <c r="A390" s="1"/>
+      <c r="A390" s="2"/>
     </row>
     <row r="391">
-      <c r="A391" s="1"/>
+      <c r="A391" s="2"/>
     </row>
     <row r="392">
-      <c r="A392" s="1"/>
+      <c r="A392" s="2"/>
     </row>
     <row r="393">
-      <c r="A393" s="1"/>
+      <c r="A393" s="2"/>
     </row>
     <row r="394">
-      <c r="A394" s="1"/>
+      <c r="A394" s="2"/>
     </row>
     <row r="395">
-      <c r="A395" s="1"/>
+      <c r="A395" s="2"/>
     </row>
     <row r="396">
-      <c r="A396" s="1"/>
+      <c r="A396" s="2"/>
     </row>
     <row r="397">
-      <c r="A397" s="1"/>
+      <c r="A397" s="2"/>
     </row>
     <row r="398">
-      <c r="A398" s="1"/>
+      <c r="A398" s="2"/>
     </row>
     <row r="399">
-      <c r="A399" s="1"/>
+      <c r="A399" s="2"/>
     </row>
     <row r="400">
-      <c r="A400" s="1"/>
+      <c r="A400" s="2"/>
     </row>
     <row r="401">
-      <c r="A401" s="1"/>
+      <c r="A401" s="2"/>
     </row>
     <row r="402">
-      <c r="A402" s="1"/>
+      <c r="A402" s="2"/>
     </row>
     <row r="403">
-      <c r="A403" s="1"/>
+      <c r="A403" s="2"/>
     </row>
     <row r="404">
-      <c r="A404" s="1"/>
+      <c r="A404" s="2"/>
     </row>
     <row r="405">
-      <c r="A405" s="1"/>
+      <c r="A405" s="2"/>
     </row>
     <row r="406">
-      <c r="A406" s="1"/>
+      <c r="A406" s="2"/>
     </row>
     <row r="407">
-      <c r="A407" s="1"/>
+      <c r="A407" s="2"/>
     </row>
     <row r="408">
-      <c r="A408" s="1"/>
+      <c r="A408" s="2"/>
     </row>
     <row r="409">
-      <c r="A409" s="1"/>
+      <c r="A409" s="2"/>
     </row>
     <row r="410">
-      <c r="A410" s="1"/>
+      <c r="A410" s="2"/>
     </row>
     <row r="411">
-      <c r="A411" s="1"/>
+      <c r="A411" s="2"/>
     </row>
     <row r="412">
-      <c r="A412" s="1"/>
+      <c r="A412" s="2"/>
     </row>
     <row r="413">
-      <c r="A413" s="1"/>
+      <c r="A413" s="2"/>
     </row>
     <row r="414">
-      <c r="A414" s="1"/>
+      <c r="A414" s="2"/>
     </row>
     <row r="415">
-      <c r="A415" s="1"/>
+      <c r="A415" s="2"/>
     </row>
     <row r="416">
-      <c r="A416" s="1"/>
+      <c r="A416" s="2"/>
     </row>
     <row r="417">
-      <c r="A417" s="1"/>
+      <c r="A417" s="2"/>
     </row>
     <row r="418">
-      <c r="A418" s="1"/>
+      <c r="A418" s="2"/>
     </row>
     <row r="419">
-      <c r="A419" s="1"/>
+      <c r="A419" s="2"/>
     </row>
     <row r="420">
-      <c r="A420" s="1"/>
+      <c r="A420" s="2"/>
     </row>
     <row r="421">
-      <c r="A421" s="1"/>
+      <c r="A421" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
